--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145351.6834634914</v>
+        <v>25111358.02118031</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145351.6834634914</v>
+        <v>25111358.02118031</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19704.71225104545</v>
+        <v>2387891.646885135</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19704.71225104545</v>
+        <v>2387891.646885135</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341037009.041177</v>
+        <v>51410741.01066181</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9744.976322637511</v>
+        <v>1047502.764738314</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19464.88351933282</v>
+        <v>2090016.773414367</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29185.56486214997</v>
+        <v>3137466.063249674</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39238.6213071962</v>
+        <v>4157564.582264963</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49128.4923839544</v>
+        <v>5187918.665785054</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58829.73265910622</v>
+        <v>6239540.224234839</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68545.25789506614</v>
+        <v>7337288.406724623</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78260.78313102607</v>
+        <v>8435036.589214409</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88317.57104583057</v>
+        <v>9465328.924704995</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97879.31517037358</v>
+        <v>10539481.8642345</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107244.0789735303</v>
+        <v>11632839.2620675</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116579.7643464604</v>
+        <v>12728180.35693248</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125920.0831533903</v>
+        <v>13824443.50516343</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135954.2643896796</v>
+        <v>14854461.88383227</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146914.4999236345</v>
+        <v>15726334.85496963</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>49.00000000011352</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>77.00000000011352</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>309.9999999998865</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,10 +27153,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>127</v>
